--- a/database/industries/biscuit/ghesalem/income/quarterly/dollar.xlsx
+++ b/database/industries/biscuit/ghesalem/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD37D75-D77D-4A3D-9516-4A2BF9D43A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0A147-3433-4643-9303-3DF93B19037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-25 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-30 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3780</v>
+        <v>3305</v>
       </c>
       <c r="E11" s="13">
-        <v>3305</v>
+        <v>5026</v>
       </c>
       <c r="F11" s="13">
-        <v>5026</v>
+        <v>4742</v>
       </c>
       <c r="G11" s="13">
-        <v>4742</v>
+        <v>5390</v>
       </c>
       <c r="H11" s="13">
-        <v>5390</v>
+        <v>6219</v>
       </c>
       <c r="I11" s="13">
-        <v>6219</v>
+        <v>6079</v>
       </c>
       <c r="J11" s="13">
-        <v>6079</v>
+        <v>7898</v>
       </c>
       <c r="K11" s="13">
-        <v>7898</v>
+        <v>10816</v>
       </c>
       <c r="L11" s="13">
-        <v>10816</v>
+        <v>10857</v>
       </c>
       <c r="M11" s="13">
-        <v>10857</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2963</v>
+        <v>-2639</v>
       </c>
       <c r="E12" s="11">
-        <v>-2639</v>
+        <v>-3791</v>
       </c>
       <c r="F12" s="11">
-        <v>-3791</v>
+        <v>-3602</v>
       </c>
       <c r="G12" s="11">
-        <v>-3602</v>
+        <v>-4078</v>
       </c>
       <c r="H12" s="11">
-        <v>-4078</v>
+        <v>-4919</v>
       </c>
       <c r="I12" s="11">
-        <v>-4919</v>
+        <v>-4931</v>
       </c>
       <c r="J12" s="11">
-        <v>-4931</v>
+        <v>-5503</v>
       </c>
       <c r="K12" s="11">
-        <v>-5503</v>
+        <v>-6890</v>
       </c>
       <c r="L12" s="11">
-        <v>-6890</v>
+        <v>-7181</v>
       </c>
       <c r="M12" s="11">
-        <v>-7181</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5033</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>817</v>
+        <v>666</v>
       </c>
       <c r="E13" s="15">
-        <v>666</v>
+        <v>1235</v>
       </c>
       <c r="F13" s="15">
-        <v>1235</v>
+        <v>1140</v>
       </c>
       <c r="G13" s="15">
-        <v>1140</v>
+        <v>1312</v>
       </c>
       <c r="H13" s="15">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="I13" s="15">
-        <v>1300</v>
+        <v>1148</v>
       </c>
       <c r="J13" s="15">
-        <v>1148</v>
+        <v>2395</v>
       </c>
       <c r="K13" s="15">
-        <v>2395</v>
+        <v>3927</v>
       </c>
       <c r="L13" s="15">
-        <v>3927</v>
+        <v>3676</v>
       </c>
       <c r="M13" s="15">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-178</v>
+        <v>-171</v>
       </c>
       <c r="E14" s="11">
-        <v>-171</v>
+        <v>-241</v>
       </c>
       <c r="F14" s="11">
-        <v>-241</v>
+        <v>-260</v>
       </c>
       <c r="G14" s="11">
-        <v>-260</v>
+        <v>-220</v>
       </c>
       <c r="H14" s="11">
-        <v>-220</v>
+        <v>-365</v>
       </c>
       <c r="I14" s="11">
-        <v>-365</v>
+        <v>-310</v>
       </c>
       <c r="J14" s="11">
-        <v>-310</v>
+        <v>-337</v>
       </c>
       <c r="K14" s="11">
-        <v>-337</v>
+        <v>-407</v>
       </c>
       <c r="L14" s="11">
-        <v>-407</v>
+        <v>-886</v>
       </c>
       <c r="M14" s="11">
-        <v>-886</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-792</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,259 +1006,259 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="E16" s="11">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="F16" s="11">
+        <v>-22</v>
+      </c>
+      <c r="G16" s="11">
         <v>-18</v>
       </c>
-      <c r="G16" s="11">
-        <v>-22</v>
-      </c>
       <c r="H16" s="11">
-        <v>-18</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
-        <v>144</v>
+        <v>-165</v>
       </c>
       <c r="J16" s="11">
-        <v>-165</v>
+        <v>-29</v>
       </c>
       <c r="K16" s="11">
-        <v>-29</v>
+        <v>-10</v>
       </c>
       <c r="L16" s="11">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="M16" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>606</v>
+        <v>468</v>
       </c>
       <c r="E17" s="15">
-        <v>468</v>
+        <v>976</v>
       </c>
       <c r="F17" s="15">
-        <v>976</v>
+        <v>858</v>
       </c>
       <c r="G17" s="15">
-        <v>858</v>
+        <v>1074</v>
       </c>
       <c r="H17" s="15">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="I17" s="15">
-        <v>1079</v>
+        <v>672</v>
       </c>
       <c r="J17" s="15">
-        <v>672</v>
+        <v>2029</v>
       </c>
       <c r="K17" s="15">
-        <v>2029</v>
+        <v>3511</v>
       </c>
       <c r="L17" s="15">
-        <v>3511</v>
+        <v>2798</v>
       </c>
       <c r="M17" s="15">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E18" s="11">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F18" s="11">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G18" s="11">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="H18" s="11">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="I18" s="11">
-        <v>-5</v>
+        <v>-23</v>
       </c>
       <c r="J18" s="11">
-        <v>-23</v>
+        <v>-67</v>
       </c>
       <c r="K18" s="11">
-        <v>-67</v>
+        <v>-62</v>
       </c>
       <c r="L18" s="11">
-        <v>-62</v>
+        <v>-96</v>
       </c>
       <c r="M18" s="11">
-        <v>-96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F19" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="H19" s="13">
-        <v>3</v>
-      </c>
       <c r="I19" s="13">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="J19" s="13">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="K19" s="13">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="L19" s="13">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="M19" s="13">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>630</v>
+        <v>463</v>
       </c>
       <c r="E20" s="17">
-        <v>463</v>
+        <v>990</v>
       </c>
       <c r="F20" s="17">
-        <v>990</v>
+        <v>851</v>
       </c>
       <c r="G20" s="17">
-        <v>851</v>
+        <v>1070</v>
       </c>
       <c r="H20" s="17">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="I20" s="17">
-        <v>1076</v>
+        <v>827</v>
       </c>
       <c r="J20" s="17">
-        <v>827</v>
+        <v>2016</v>
       </c>
       <c r="K20" s="17">
-        <v>2016</v>
+        <v>3456</v>
       </c>
       <c r="L20" s="17">
-        <v>3456</v>
+        <v>2772</v>
       </c>
       <c r="M20" s="17">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-103</v>
+        <v>-88</v>
       </c>
       <c r="E21" s="13">
-        <v>-88</v>
+        <v>-143</v>
       </c>
       <c r="F21" s="13">
-        <v>-143</v>
+        <v>-160</v>
       </c>
       <c r="G21" s="13">
-        <v>-160</v>
+        <v>-192</v>
       </c>
       <c r="H21" s="13">
-        <v>-192</v>
+        <v>-191</v>
       </c>
       <c r="I21" s="13">
-        <v>-191</v>
+        <v>-19</v>
       </c>
       <c r="J21" s="13">
-        <v>-19</v>
+        <v>-273</v>
       </c>
       <c r="K21" s="13">
-        <v>-273</v>
+        <v>-635</v>
       </c>
       <c r="L21" s="13">
-        <v>-635</v>
+        <v>-459</v>
       </c>
       <c r="M21" s="13">
-        <v>-459</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>527</v>
+        <v>374</v>
       </c>
       <c r="E22" s="17">
-        <v>374</v>
+        <v>847</v>
       </c>
       <c r="F22" s="17">
-        <v>847</v>
+        <v>691</v>
       </c>
       <c r="G22" s="17">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="H22" s="17">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="I22" s="17">
-        <v>885</v>
+        <v>808</v>
       </c>
       <c r="J22" s="17">
-        <v>808</v>
+        <v>1743</v>
       </c>
       <c r="K22" s="17">
-        <v>1743</v>
+        <v>2821</v>
       </c>
       <c r="L22" s="17">
-        <v>2821</v>
+        <v>2313</v>
       </c>
       <c r="M22" s="17">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>527</v>
+        <v>374</v>
       </c>
       <c r="E24" s="17">
-        <v>374</v>
+        <v>847</v>
       </c>
       <c r="F24" s="17">
-        <v>847</v>
+        <v>691</v>
       </c>
       <c r="G24" s="17">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="H24" s="17">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="I24" s="17">
-        <v>885</v>
+        <v>808</v>
       </c>
       <c r="J24" s="17">
-        <v>808</v>
+        <v>1743</v>
       </c>
       <c r="K24" s="17">
-        <v>1743</v>
+        <v>2821</v>
       </c>
       <c r="L24" s="17">
-        <v>2821</v>
+        <v>2313</v>
       </c>
       <c r="M24" s="17">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>20332</v>
+        <v>16500</v>
       </c>
       <c r="E26" s="11">
-        <v>16500</v>
+        <v>18359</v>
       </c>
       <c r="F26" s="11">
-        <v>18359</v>
+        <v>19220</v>
       </c>
       <c r="G26" s="11">
-        <v>19220</v>
+        <v>17179</v>
       </c>
       <c r="H26" s="11">
-        <v>17179</v>
+        <v>15749</v>
       </c>
       <c r="I26" s="11">
-        <v>15749</v>
+        <v>16280</v>
       </c>
       <c r="J26" s="11">
-        <v>16280</v>
+        <v>15260</v>
       </c>
       <c r="K26" s="11">
-        <v>15260</v>
+        <v>14457</v>
       </c>
       <c r="L26" s="11">
-        <v>14457</v>
+        <v>12906</v>
       </c>
       <c r="M26" s="11">
-        <v>12906</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
